--- a/output/【河洛話注音】《水龍吟·登建康賞心亭》.xlsx
+++ b/output/【河洛話注音】《水龍吟·登建康賞心亭》.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Piau-Im\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDBD63C-7287-412B-8160-8D147162A72A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C766A60-9C9A-4FFB-BBA8-8F277B3AB7BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21480" windowHeight="11895" firstSheet="1" activeTab="1" xr2:uid="{BF481C1B-D385-46B9-9CCA-9BADEBE96FDC}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="17280" windowHeight="12870" firstSheet="1" activeTab="1" xr2:uid="{BF481C1B-D385-46B9-9CCA-9BADEBE96FDC}"/>
   </bookViews>
   <sheets>
     <sheet name="閩拼拼音" sheetId="10" r:id="rId1"/>
@@ -1859,9 +1859,6 @@
 </t>
   </si>
   <si>
-    <t>&lt;div class='zhu_yin'&gt;&lt;p class='title'&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;水&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄙㄨㄧˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -3131,6 +3128,9 @@
   </si>
   <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;淚&lt;/rb&gt;&lt;rt&gt;lui7&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄨㄧ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class='Piau_Im'&gt;&lt;p class='title'&gt;</t>
   </si>
 </sst>
 </file>
@@ -7797,12 +7797,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="255">
       <c r="A1" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -7812,17 +7812,17 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -7832,32 +7832,32 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -7877,32 +7877,32 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -7912,37 +7912,37 @@
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="31" spans="1:1">
@@ -7952,22 +7952,22 @@
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -7977,22 +7977,22 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="41" spans="1:1">
@@ -8002,22 +8002,22 @@
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="46" spans="1:1">
@@ -8027,22 +8027,22 @@
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="51" spans="1:1">
@@ -8052,22 +8052,22 @@
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="56" spans="1:1">
@@ -8077,22 +8077,22 @@
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="61" spans="1:1">
@@ -8102,27 +8102,27 @@
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="67" spans="1:1">
@@ -8132,22 +8132,22 @@
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="72" spans="1:1">
@@ -8157,17 +8157,17 @@
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="76" spans="1:1">
@@ -8177,17 +8177,17 @@
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="80" spans="1:1">
@@ -8202,32 +8202,32 @@
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="88" spans="1:1">
@@ -8237,17 +8237,17 @@
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="92" spans="1:1">
@@ -8257,22 +8257,22 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="97" spans="1:1">
@@ -8282,22 +8282,22 @@
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="102" spans="1:1">
@@ -8307,22 +8307,22 @@
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="1" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="107" spans="1:1">
@@ -8332,22 +8332,22 @@
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="1" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="112" spans="1:1">
@@ -8357,22 +8357,22 @@
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="117" spans="1:1">
@@ -8382,22 +8382,22 @@
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="1" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="122" spans="1:1">
@@ -8407,22 +8407,22 @@
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="1" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="127" spans="1:1">
@@ -8432,27 +8432,27 @@
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="1" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="133" spans="1:1">
@@ -8462,22 +8462,22 @@
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="1" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="138" spans="1:1">
@@ -8487,22 +8487,22 @@
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="143" spans="1:1">
@@ -8539,12 +8539,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="255">
       <c r="A1" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -8554,17 +8554,17 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -8574,32 +8574,32 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -8619,32 +8619,32 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -8654,37 +8654,37 @@
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="31" spans="1:1">
@@ -8694,22 +8694,22 @@
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -8719,22 +8719,22 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="41" spans="1:1">
@@ -8744,22 +8744,22 @@
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="46" spans="1:1">
@@ -8769,22 +8769,22 @@
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="51" spans="1:1">
@@ -8794,22 +8794,22 @@
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="56" spans="1:1">
@@ -8819,22 +8819,22 @@
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="61" spans="1:1">
@@ -8844,27 +8844,27 @@
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="67" spans="1:1">
@@ -8874,22 +8874,22 @@
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="72" spans="1:1">
@@ -8899,17 +8899,17 @@
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="76" spans="1:1">
@@ -8919,17 +8919,17 @@
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="80" spans="1:1">
@@ -8944,32 +8944,32 @@
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="88" spans="1:1">
@@ -8979,17 +8979,17 @@
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="92" spans="1:1">
@@ -8999,22 +8999,22 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="97" spans="1:1">
@@ -9024,22 +9024,22 @@
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="102" spans="1:1">
@@ -9049,22 +9049,22 @@
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="107" spans="1:1">
@@ -9074,22 +9074,22 @@
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="1" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="112" spans="1:1">
@@ -9099,22 +9099,22 @@
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="117" spans="1:1">
@@ -9124,22 +9124,22 @@
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="1" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="122" spans="1:1">
@@ -9149,22 +9149,22 @@
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="127" spans="1:1">
@@ -9174,27 +9174,27 @@
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="133" spans="1:1">
@@ -9204,22 +9204,22 @@
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="138" spans="1:1">
@@ -9234,17 +9234,17 @@
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="143" spans="1:1">
@@ -9281,12 +9281,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="255">
       <c r="A1" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -9321,7 +9321,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -9331,7 +9331,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -9361,7 +9361,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -9411,7 +9411,7 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -9436,22 +9436,22 @@
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -9461,12 +9461,12 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="39" spans="1:1">
@@ -9476,7 +9476,7 @@
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="41" spans="1:1">
@@ -9491,7 +9491,7 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="44" spans="1:1">
@@ -9521,12 +9521,12 @@
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="51" spans="1:1">
@@ -9536,7 +9536,7 @@
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="53" spans="1:1">
@@ -9571,12 +9571,12 @@
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="61" spans="1:1">
@@ -9586,7 +9586,7 @@
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="63" spans="1:1">
@@ -9596,7 +9596,7 @@
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="65" spans="1:1">
@@ -9621,7 +9621,7 @@
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="70" spans="1:1">
@@ -9631,7 +9631,7 @@
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="72" spans="1:1">
@@ -9651,7 +9651,7 @@
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="76" spans="1:1">
@@ -9671,7 +9671,7 @@
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="80" spans="1:1">
@@ -9691,7 +9691,7 @@
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="84" spans="1:1">
@@ -9711,7 +9711,7 @@
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="88" spans="1:1">
@@ -9721,7 +9721,7 @@
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="90" spans="1:1">
@@ -9731,7 +9731,7 @@
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="92" spans="1:1">
@@ -9741,12 +9741,12 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="95" spans="1:1">
@@ -9756,7 +9756,7 @@
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="97" spans="1:1">
@@ -9796,7 +9796,7 @@
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="105" spans="1:1">
@@ -9826,7 +9826,7 @@
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="111" spans="1:1">
@@ -9866,22 +9866,22 @@
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="122" spans="1:1">
@@ -9891,12 +9891,12 @@
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="125" spans="1:1">
@@ -9906,7 +9906,7 @@
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="127" spans="1:1">
@@ -9921,7 +9921,7 @@
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="130" spans="1:1">
@@ -9936,7 +9936,7 @@
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="133" spans="1:1">
@@ -9976,12 +9976,12 @@
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="142" spans="1:1">
@@ -10023,12 +10023,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="255">
       <c r="A1" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -10063,7 +10063,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -10073,7 +10073,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -10103,7 +10103,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -10153,7 +10153,7 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -10178,22 +10178,22 @@
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -10203,12 +10203,12 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="39" spans="1:1">
@@ -10218,7 +10218,7 @@
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="41" spans="1:1">
@@ -10233,7 +10233,7 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="44" spans="1:1">
@@ -10263,12 +10263,12 @@
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="51" spans="1:1">
@@ -10278,7 +10278,7 @@
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="53" spans="1:1">
@@ -10313,12 +10313,12 @@
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="61" spans="1:1">
@@ -10328,7 +10328,7 @@
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="63" spans="1:1">
@@ -10338,7 +10338,7 @@
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="65" spans="1:1">
@@ -10363,7 +10363,7 @@
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="70" spans="1:1">
@@ -10373,7 +10373,7 @@
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="72" spans="1:1">
@@ -10393,7 +10393,7 @@
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="76" spans="1:1">
@@ -10413,7 +10413,7 @@
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="80" spans="1:1">
@@ -10433,7 +10433,7 @@
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="84" spans="1:1">
@@ -10453,7 +10453,7 @@
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="88" spans="1:1">
@@ -10463,7 +10463,7 @@
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="90" spans="1:1">
@@ -10473,7 +10473,7 @@
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="92" spans="1:1">
@@ -10483,12 +10483,12 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="95" spans="1:1">
@@ -10498,7 +10498,7 @@
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="97" spans="1:1">
@@ -10538,7 +10538,7 @@
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="105" spans="1:1">
@@ -10568,7 +10568,7 @@
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="111" spans="1:1">
@@ -10608,22 +10608,22 @@
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="122" spans="1:1">
@@ -10633,12 +10633,12 @@
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="125" spans="1:1">
@@ -10648,7 +10648,7 @@
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="127" spans="1:1">
@@ -10673,12 +10673,12 @@
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="133" spans="1:1">
@@ -10718,12 +10718,12 @@
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="142" spans="1:1">
@@ -10765,12 +10765,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="255">
       <c r="A1" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -10805,7 +10805,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -10815,7 +10815,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -10845,7 +10845,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -10895,7 +10895,7 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -10910,7 +10910,7 @@
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="31" spans="1:1">
@@ -10920,22 +10920,22 @@
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -10945,12 +10945,12 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="39" spans="1:1">
@@ -10960,7 +10960,7 @@
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="41" spans="1:1">
@@ -10975,7 +10975,7 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="44" spans="1:1">
@@ -11005,12 +11005,12 @@
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="51" spans="1:1">
@@ -11020,7 +11020,7 @@
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="53" spans="1:1">
@@ -11055,12 +11055,12 @@
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="61" spans="1:1">
@@ -11070,7 +11070,7 @@
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="63" spans="1:1">
@@ -11080,7 +11080,7 @@
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="65" spans="1:1">
@@ -11105,7 +11105,7 @@
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="70" spans="1:1">
@@ -11115,7 +11115,7 @@
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="72" spans="1:1">
@@ -11135,7 +11135,7 @@
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="76" spans="1:1">
@@ -11155,7 +11155,7 @@
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="80" spans="1:1">
@@ -11175,7 +11175,7 @@
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="84" spans="1:1">
@@ -11195,7 +11195,7 @@
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="88" spans="1:1">
@@ -11205,7 +11205,7 @@
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="90" spans="1:1">
@@ -11215,7 +11215,7 @@
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="92" spans="1:1">
@@ -11225,12 +11225,12 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="95" spans="1:1">
@@ -11240,7 +11240,7 @@
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="97" spans="1:1">
@@ -11280,7 +11280,7 @@
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="105" spans="1:1">
@@ -11310,7 +11310,7 @@
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="111" spans="1:1">
@@ -11350,22 +11350,22 @@
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="122" spans="1:1">
@@ -11375,12 +11375,12 @@
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="125" spans="1:1">
@@ -11390,7 +11390,7 @@
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="127" spans="1:1">
@@ -11420,7 +11420,7 @@
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="133" spans="1:1">
@@ -11460,12 +11460,12 @@
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="142" spans="1:1">
@@ -11512,7 +11512,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>589</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -11522,17 +11522,17 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -11542,32 +11542,32 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -11587,32 +11587,32 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -11622,37 +11622,37 @@
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="31" spans="1:1">
@@ -11662,22 +11662,22 @@
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -11687,22 +11687,22 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="41" spans="1:1">
@@ -11712,22 +11712,22 @@
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="46" spans="1:1">
@@ -11737,22 +11737,22 @@
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="51" spans="1:1">
@@ -11762,22 +11762,22 @@
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="56" spans="1:1">
@@ -11787,22 +11787,22 @@
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="61" spans="1:1">
@@ -11812,27 +11812,27 @@
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="67" spans="1:1">
@@ -11842,22 +11842,22 @@
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="72" spans="1:1">
@@ -11867,17 +11867,17 @@
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="76" spans="1:1">
@@ -11887,17 +11887,17 @@
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="80" spans="1:1">
@@ -11912,32 +11912,32 @@
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="88" spans="1:1">
@@ -11947,17 +11947,17 @@
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="92" spans="1:1">
@@ -11967,22 +11967,22 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="97" spans="1:1">
@@ -11992,22 +11992,22 @@
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="102" spans="1:1">
@@ -12017,22 +12017,22 @@
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="107" spans="1:1">
@@ -12042,22 +12042,22 @@
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="112" spans="1:1">
@@ -12067,22 +12067,22 @@
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="117" spans="1:1">
@@ -12092,22 +12092,22 @@
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="122" spans="1:1">
@@ -12117,22 +12117,22 @@
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="127" spans="1:1">
@@ -12142,27 +12142,27 @@
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="133" spans="1:1">
@@ -12172,22 +12172,22 @@
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="138" spans="1:1">
@@ -12202,17 +12202,17 @@
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="143" spans="1:1">
